--- a/APITestingWithTestNG/src/test/resources/TestData_orig.xlsx
+++ b/APITestingWithTestNG/src/test/resources/TestData_orig.xlsx
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
